--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001F6B3-1675-431C-91A0-869736114585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809E79E6-B931-4885-9EEE-48F599E60B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -96,6 +96,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,581 +399,591 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6">
+        <v>45627</v>
+      </c>
+      <c r="B2" s="4">
+        <v>231.46799999999999</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C40" si="0">(B2/B14-1)*100</f>
+        <v>-6.6698923430506873</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>262.44</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C39" si="0">(B2/B14-1)*100</f>
+      <c r="C3">
+        <f t="shared" si="0"/>
         <v>24.568065312322005</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45566</v>
-      </c>
-      <c r="B3" s="4">
-        <v>242.21</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>-11.004556143445033</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B4" s="4">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-15.716538981523199</v>
+        <v>-11.004556143445033</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B5" s="4">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-13.654927014677941</v>
+        <v>-15.716538981523199</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B6" s="4">
-        <v>275.39999999999998</v>
+        <v>213.54</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>8.780661215783848</v>
+        <v>-13.654927014677941</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B7" s="5">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B7" s="4">
+        <v>275.39999999999998</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-14.043264783320286</v>
+        <v>8.780661215783848</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B8" s="5">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>35.908928844292753</v>
+        <v>-14.043264783320286</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B9" s="5">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-7.6016229043864296</v>
+        <v>35.908928844292753</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B10" s="5">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>13.912839737581994</v>
+        <v>-7.6016229043864296</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B11" s="5">
-        <v>261.29000000000002</v>
+        <v>243.09</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>8.5226564771358593</v>
+        <v>13.912839737581994</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B12" s="5">
-        <v>231.86</v>
+        <v>261.29000000000002</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>10.688881462739296</v>
+        <v>8.5226564771358593</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B13" s="5">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-1.104553792168439</v>
+        <v>10.688881462739296</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B14" s="5">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-19.679756004574912</v>
+        <v>-1.104553792168439</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B15" s="5">
-        <v>272.16000000000003</v>
+        <v>210.68</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>3.4986309704898355</v>
+        <v>-19.679756004574912</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B16" s="5">
-        <v>266.27999999999997</v>
+        <v>272.16000000000003</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-9.8395070088711289</v>
+        <v>3.4986309704898355</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B17" s="5">
-        <v>247.31</v>
+        <v>266.27999999999997</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-7.1589458668068096</v>
+        <v>-9.8395070088711289</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B18" s="5">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-8.7346791636625731</v>
+        <v>-7.1589458668068096</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B19" s="5">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2.7604109538956534</v>
+        <v>-8.7346791636625731</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B20" s="5">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-30.305289314873974</v>
+        <v>2.7604109538956534</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B21" s="5">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-0.69935385784873905</v>
+        <v>-30.305289314873974</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B22" s="5">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-12.238855074847832</v>
+        <v>-0.69935385784873905</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B23" s="5">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-1.4691438860697348</v>
+        <v>-12.238855074847832</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44927</v>
-      </c>
-      <c r="B24" s="1">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B24" s="5">
+        <v>240.77</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-8.7197141363081769</v>
-      </c>
+        <v>-1.4691438860697348</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B25" s="1">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.4564285136337896</v>
+        <v>-8.7197141363081769</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B26" s="1">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>-14.337034617896794</v>
+        <v>1.4564285136337896</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B27" s="1">
-        <v>262.95999999999998</v>
+        <v>262.3</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>10.972316002700854</v>
+        <v>-14.337034617896794</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B28" s="1">
-        <v>295.33999999999997</v>
+        <v>262.95999999999998</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>16.43603390498718</v>
+        <v>10.972316002700854</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B29" s="1">
-        <v>266.38</v>
+        <v>295.33999999999997</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>2.1199923327582804</v>
+        <v>16.43603390498718</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B30" s="1">
-        <v>277.39999999999998</v>
+        <v>266.38</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>1.1965562527360252</v>
+        <v>2.1199923327582804</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B31" s="1">
-        <v>273.51</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-2.7658288598954917</v>
+        <v>1.1965562527360252</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B32" s="1">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.14219694276571548</v>
+        <v>-2.7658288598954917</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B33" s="1">
-        <v>263.10000000000002</v>
+        <v>281.7</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-2.1714880642522361</v>
+        <v>0.14219694276571548</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B34" s="1">
-        <v>243.16</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>-24.3152390438247</v>
+        <v>-2.1714880642522361</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B35" s="1">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>-8.8140906037764033</v>
+        <v>-24.3152390438247</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B36" s="1">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>-22.365438614296828</v>
+        <v>-8.8140906037764033</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B37" s="1">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>2.8117461109724795</v>
+        <v>-22.365438614296828</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B38" s="1">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>17.800946408648464</v>
+        <v>2.8117461109724795</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B39" s="1">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>4.1628203437513722</v>
+        <v>17.800946408648464</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B40" s="1">
-        <v>253.65</v>
+        <v>236.96</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>4.1628203437513722</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B41" s="1">
-        <v>260.85000000000002</v>
+        <v>253.65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B42" s="1">
-        <v>274.12</v>
+        <v>260.85000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B43" s="1">
-        <v>281.29000000000002</v>
+        <v>274.12</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B44" s="1">
-        <v>281.3</v>
+        <v>281.29000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B45" s="1">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B46" s="1">
-        <v>321.27999999999997</v>
+        <v>268.94</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B47" s="1">
-        <v>267.98</v>
+        <v>321.27999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B48" s="1">
-        <v>295.58999999999997</v>
+        <v>267.98</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B49" s="1">
-        <v>240.42</v>
+        <v>295.58999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B50" s="1">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
+        <v>44136</v>
+      </c>
+      <c r="B51" s="1">
+        <v>259.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44105</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>227.49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -1009,6 +1020,9 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -448,26 +448,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-      <c r="D3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B4" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -476,11 +475,13 @@
       <c r="D4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45566</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -490,10 +491,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -503,10 +504,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -516,10 +517,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -529,10 +530,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -542,10 +543,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -555,10 +556,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -568,10 +569,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -581,10 +582,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -594,10 +595,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -607,10 +608,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -620,10 +621,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -633,10 +634,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -646,10 +647,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -659,10 +660,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -672,10 +673,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -685,10 +686,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -698,10 +699,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -711,10 +712,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -724,10 +725,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -737,10 +738,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -750,22 +751,23 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
         <v/>
       </c>
+      <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -786,10 +788,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -846,10 +848,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -858,10 +860,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1002,10 +1004,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1050,10 +1052,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1085,7 +1087,12 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
+      <c r="A54" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
         <v/>
@@ -1175,6 +1182,13 @@
         <v/>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
+      <c r="C67">
+        <f>(B67/B79-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -462,26 +462,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-      <c r="D4" s="4" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B5" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -490,11 +489,13 @@
       <c r="D5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45566</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -504,10 +505,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -517,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -530,10 +531,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -543,10 +544,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -556,10 +557,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -569,10 +570,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -582,10 +583,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -595,10 +596,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -608,10 +609,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -621,10 +622,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -634,10 +635,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -647,10 +648,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -660,10 +661,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -673,10 +674,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -686,10 +687,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -699,10 +700,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -712,10 +713,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -725,10 +726,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -738,10 +739,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -751,10 +752,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -764,22 +765,23 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
         <v/>
       </c>
+      <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -788,10 +790,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -800,10 +802,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -824,10 +826,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -836,10 +838,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -848,10 +850,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -860,10 +862,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -872,10 +874,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -908,10 +910,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -932,10 +934,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -944,10 +946,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -956,10 +958,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -968,10 +970,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -980,10 +982,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -992,10 +994,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1004,10 +1006,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1052,10 +1054,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1064,10 +1066,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1088,10 +1090,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1099,7 +1101,12 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
+      <c r="A55" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
         <v/>
@@ -1189,6 +1196,13 @@
         <v/>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="3" t="n"/>
+      <c r="C68">
+        <f>(B68/B80-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -476,26 +476,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-      <c r="D5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B6" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -504,11 +503,13 @@
       <c r="D6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45566</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -518,10 +519,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -531,10 +532,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -544,10 +545,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -557,10 +558,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -570,10 +571,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -583,10 +584,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -596,10 +597,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -609,10 +610,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -622,10 +623,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -635,10 +636,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -648,10 +649,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -661,10 +662,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -674,10 +675,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -687,10 +688,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -700,10 +701,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -713,10 +714,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -726,10 +727,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -739,10 +740,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -752,10 +753,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -765,10 +766,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -778,22 +779,23 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
         <v/>
       </c>
+      <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -802,10 +804,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -814,10 +816,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -838,10 +840,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -850,10 +852,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -862,10 +864,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -874,10 +876,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -886,10 +888,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -922,10 +924,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -946,10 +948,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -958,10 +960,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -970,10 +972,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -982,10 +984,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -994,10 +996,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1006,10 +1008,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1018,10 +1020,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1030,10 +1032,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1066,10 +1068,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1078,10 +1080,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1090,10 +1092,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1102,10 +1104,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1113,7 +1115,12 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
+      <c r="A56" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
         <v/>
@@ -1203,6 +1210,13 @@
         <v/>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="3" t="n"/>
+      <c r="C69">
+        <f>(B69/B81-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -490,26 +490,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-      <c r="D6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B7" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -518,11 +517,13 @@
       <c r="D7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45566</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -532,10 +533,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -545,10 +546,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -558,10 +559,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -571,10 +572,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -584,10 +585,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -597,10 +598,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -610,10 +611,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -623,10 +624,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -636,10 +637,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -649,10 +650,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -662,10 +663,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -675,10 +676,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -688,10 +689,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -701,10 +702,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -714,10 +715,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -727,10 +728,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -740,10 +741,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -753,10 +754,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -766,10 +767,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -779,10 +780,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -792,22 +793,23 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
         <v/>
       </c>
+      <c r="D29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -816,10 +818,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -828,10 +830,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -840,10 +842,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -852,10 +854,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -864,10 +866,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -876,10 +878,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -888,10 +890,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -900,10 +902,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -912,10 +914,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -924,10 +926,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -936,10 +938,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -948,10 +950,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -960,10 +962,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -972,10 +974,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -984,10 +986,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -996,10 +998,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1008,10 +1010,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1020,10 +1022,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1032,10 +1034,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1044,10 +1046,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1056,10 +1058,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1068,10 +1070,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1080,10 +1082,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1092,10 +1094,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1104,10 +1106,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1116,10 +1118,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1127,7 +1129,12 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n"/>
+      <c r="A57" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
         <v/>
@@ -1217,6 +1224,13 @@
         <v/>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="3" t="n"/>
+      <c r="C70">
+        <f>(B70/B82-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -504,26 +504,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-      <c r="D7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B8" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -532,11 +531,13 @@
       <c r="D8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45566</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -546,10 +547,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -559,10 +560,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -572,10 +573,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -585,10 +586,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -598,10 +599,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -611,10 +612,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -624,10 +625,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -637,10 +638,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -650,10 +651,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -663,10 +664,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -676,10 +677,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -689,10 +690,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -702,10 +703,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -715,10 +716,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -728,10 +729,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -741,10 +742,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -754,10 +755,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -767,10 +768,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -780,10 +781,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -793,10 +794,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -806,22 +807,23 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
         <v/>
       </c>
+      <c r="D30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -830,10 +832,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -842,10 +844,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -866,10 +868,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -878,10 +880,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -890,10 +892,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -902,10 +904,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -914,10 +916,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -974,10 +976,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1094,10 +1096,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1118,10 +1120,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1130,10 +1132,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1141,7 +1143,12 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
+      <c r="A58" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
         <v/>
@@ -1231,6 +1238,13 @@
         <v/>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="3" t="n"/>
+      <c r="C71">
+        <f>(B71/B83-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.51</v>
+        <v>283.73</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -518,26 +518,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C8">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-      <c r="D8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B9" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -546,11 +545,13 @@
       <c r="D9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45566</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -560,10 +561,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -573,10 +574,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -586,10 +587,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -599,10 +600,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -612,10 +613,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -625,10 +626,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -638,10 +639,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -651,10 +652,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -664,10 +665,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -677,10 +678,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -690,10 +691,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -703,10 +704,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -716,10 +717,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -729,10 +730,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -742,10 +743,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -755,10 +756,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -768,10 +769,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -781,10 +782,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -794,10 +795,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -807,10 +808,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -820,22 +821,23 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
         <v/>
       </c>
+      <c r="D31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -844,10 +846,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -856,10 +858,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -868,10 +870,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -880,10 +882,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -892,10 +894,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -904,10 +906,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -916,10 +918,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -928,10 +930,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -940,10 +942,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -952,10 +954,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -964,10 +966,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -976,10 +978,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -988,10 +990,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1036,10 +1038,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1096,10 +1098,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1108,10 +1110,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1132,10 +1134,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1144,10 +1146,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1155,7 +1157,12 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
+      <c r="A59" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
         <v/>
@@ -1245,6 +1252,13 @@
         <v/>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="3" t="n"/>
+      <c r="C72">
+        <f>(B72/B84-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.73</v>
+        <v>294.08</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.51</v>
+        <v>283.73</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -532,26 +532,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C9">
-        <f>(B9/B21-1)*100</f>
-        <v/>
-      </c>
-      <c r="D9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B10" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -560,11 +559,13 @@
       <c r="D10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45566</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -574,10 +575,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -587,10 +588,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -600,10 +601,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -613,10 +614,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -626,10 +627,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -639,10 +640,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -652,10 +653,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -665,10 +666,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -678,10 +679,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -691,10 +692,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -704,10 +705,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -717,10 +718,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -730,10 +731,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -743,10 +744,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -756,10 +757,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -769,10 +770,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -782,10 +783,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -795,10 +796,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -808,10 +809,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -821,10 +822,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -834,22 +835,23 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
         <v/>
       </c>
+      <c r="D32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -858,10 +860,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1002,10 +1004,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1050,10 +1052,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1086,10 +1088,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1110,10 +1112,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1134,10 +1136,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1146,10 +1148,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1158,10 +1160,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1169,7 +1171,12 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
+      <c r="A60" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
         <v/>
@@ -1259,6 +1266,13 @@
         <v/>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="3" t="n"/>
+      <c r="C73">
+        <f>(B73/B85-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.08</v>
+        <v>245.79</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.73</v>
+        <v>294.08</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.51</v>
+        <v>283.73</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -534,11 +534,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -546,26 +546,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C10">
-        <f>(B10/B22-1)*100</f>
-        <v/>
-      </c>
-      <c r="D10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B11" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -574,11 +573,13 @@
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45566</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -588,10 +589,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -601,10 +602,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -614,10 +615,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -627,10 +628,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -640,10 +641,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -653,10 +654,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -666,10 +667,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -679,10 +680,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -692,10 +693,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -705,10 +706,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -718,10 +719,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -731,10 +732,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -744,10 +745,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -757,10 +758,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -770,10 +771,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -783,10 +784,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -796,10 +797,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -809,10 +810,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -822,10 +823,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -835,10 +836,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -848,22 +849,23 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
         <v/>
       </c>
+      <c r="D33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -872,10 +874,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -908,10 +910,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -932,10 +934,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -944,10 +946,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -956,10 +958,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -968,10 +970,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -980,10 +982,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -992,10 +994,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1004,10 +1006,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1052,10 +1054,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1064,10 +1066,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1088,10 +1090,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1100,10 +1102,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1112,10 +1114,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1124,10 +1126,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1136,10 +1138,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1148,10 +1150,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1160,10 +1162,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1172,10 +1174,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1183,7 +1185,12 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
+      <c r="A61" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
         <v/>
@@ -1273,6 +1280,13 @@
         <v/>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="3" t="n"/>
+      <c r="C74">
+        <f>(B74/B86-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245.79</v>
+        <v>279.23</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>294.08</v>
+        <v>245.79</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.73</v>
+        <v>294.08</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.51</v>
+        <v>283.73</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -534,11 +534,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -548,11 +548,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -560,26 +560,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>231.468</v>
-      </c>
-      <c r="C11">
-        <f>(B11/B23-1)*100</f>
-        <v/>
-      </c>
-      <c r="D11" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>262.44</v>
+      </c>
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>45627</v>
+      </c>
       <c r="B12" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -588,11 +587,13 @@
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45566</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -602,10 +603,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -615,10 +616,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -628,10 +629,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -641,10 +642,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -654,10 +655,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -667,10 +668,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -680,10 +681,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -693,10 +694,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -706,10 +707,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -719,10 +720,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -732,10 +733,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -745,10 +746,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -758,10 +759,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -771,10 +772,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -784,10 +785,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -797,10 +798,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -810,10 +811,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -823,10 +824,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -836,10 +837,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -849,10 +850,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -862,22 +863,23 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
         <v/>
       </c>
+      <c r="D34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -886,10 +888,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -922,10 +924,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -946,10 +948,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -958,10 +960,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -970,10 +972,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -982,10 +984,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -994,10 +996,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1006,10 +1008,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1018,10 +1020,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1030,10 +1032,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1066,10 +1068,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1078,10 +1080,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1090,10 +1092,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1102,10 +1104,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1114,10 +1116,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1126,10 +1128,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1138,10 +1140,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1150,10 +1152,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1162,10 +1164,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1174,10 +1176,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1186,10 +1188,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1197,7 +1199,12 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
+      <c r="A62" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
         <v/>
@@ -1287,6 +1294,13 @@
         <v/>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="3" t="n"/>
+      <c r="C75">
+        <f>(B75/B87-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.23</v>
+        <v>232.76</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.79</v>
+        <v>279.23</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.08</v>
+        <v>245.79</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.73</v>
+        <v>294.08</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.51</v>
+        <v>283.73</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -534,11 +534,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -548,11 +548,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -562,11 +562,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -574,26 +574,25 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>231.468</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>262.44</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
         <v/>
       </c>
-      <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
+      <c r="A13" s="6" t="n">
+        <v>45627</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -602,11 +601,13 @@
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45566</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -616,10 +617,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -629,10 +630,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -642,10 +643,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -655,10 +656,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -668,10 +669,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -681,10 +682,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -694,10 +695,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -707,10 +708,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -720,10 +721,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -733,10 +734,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -746,10 +747,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -759,10 +760,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -772,10 +773,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -785,10 +786,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -798,10 +799,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -811,10 +812,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -824,10 +825,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -837,10 +838,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -850,10 +851,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -863,10 +864,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -876,22 +877,23 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
         <v/>
       </c>
+      <c r="D35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -900,10 +902,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -912,10 +914,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -924,10 +926,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -936,10 +938,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -948,10 +950,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -960,10 +962,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -972,10 +974,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -984,10 +986,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -996,10 +998,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1008,10 +1010,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1020,10 +1022,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1032,10 +1034,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1044,10 +1046,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1056,10 +1058,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1068,10 +1070,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1080,10 +1082,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1092,10 +1094,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1104,10 +1106,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1116,10 +1118,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1128,10 +1130,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1140,10 +1142,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1152,10 +1154,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1164,10 +1166,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1176,10 +1178,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1188,10 +1190,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1200,10 +1202,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1211,7 +1213,12 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
+      <c r="A63" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
         <v/>
@@ -1301,6 +1308,13 @@
         <v/>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="3" t="n"/>
+      <c r="C76">
+        <f>(B76/B88-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.76</v>
+        <v>254.06</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.23</v>
+        <v>232.76</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.79</v>
+        <v>279.23</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.08</v>
+        <v>245.79</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283.73</v>
+        <v>294.08</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.51</v>
+        <v>283.73</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -534,11 +534,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -548,11 +548,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -562,11 +562,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -576,11 +576,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -588,26 +588,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>231.468</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>262.44</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
         <v/>
       </c>
-      <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
+      <c r="A14" s="6" t="n">
+        <v>45627</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -616,11 +615,13 @@
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45566</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -630,10 +631,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -643,10 +644,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -656,10 +657,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -669,10 +670,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -682,10 +683,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -695,10 +696,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -708,10 +709,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -721,10 +722,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -734,10 +735,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -747,10 +748,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -760,10 +761,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -773,10 +774,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -786,10 +787,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -799,10 +800,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -812,10 +813,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -825,10 +826,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -838,10 +839,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -851,10 +852,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -864,10 +865,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -877,10 +878,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -890,22 +891,23 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
         <v/>
       </c>
+      <c r="D36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -914,10 +916,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -974,10 +976,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1094,10 +1096,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1118,10 +1120,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1130,10 +1132,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1142,10 +1144,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1154,10 +1156,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1166,10 +1168,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1178,10 +1180,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1190,10 +1192,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1202,10 +1204,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1214,10 +1216,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1225,7 +1227,12 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
+      <c r="A64" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
         <v/>
@@ -1315,6 +1322,13 @@
         <v/>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="3" t="n"/>
+      <c r="C77">
+        <f>(B77/B89-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.06</v>
+        <v>238.05</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232.76</v>
+        <v>254.06</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.23</v>
+        <v>232.76</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.79</v>
+        <v>279.23</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294.08</v>
+        <v>245.79</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>283.73</v>
+        <v>294.08</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.51</v>
+        <v>283.73</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -534,11 +534,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>278.61</v>
+        <v>279.51</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -548,11 +548,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.03</v>
+        <v>278.61</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -562,11 +562,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.74</v>
+        <v>229.03</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -576,11 +576,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>231.47</v>
+        <v>239.74</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -590,11 +590,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>262.44</v>
+        <v>231.47</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -602,26 +602,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>231.468</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>262.44</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
         <v/>
       </c>
-      <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
+      <c r="A15" s="6" t="n">
+        <v>45627</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>262.44</v>
+        <v>231.468</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -630,11 +629,13 @@
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45566</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>242.21</v>
+        <v>262.44</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -644,10 +645,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>224.43</v>
+        <v>242.21</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -657,10 +658,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>213.54</v>
+        <v>224.43</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -670,10 +671,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>275.4</v>
+        <v>213.54</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -683,10 +684,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>241.59</v>
+        <v>45474</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>275.4</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -696,10 +697,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>266.83</v>
+        <v>241.59</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -709,10 +710,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>241.4</v>
+        <v>266.83</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -722,10 +723,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>243.09</v>
+        <v>241.4</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -735,10 +736,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>261.29</v>
+        <v>243.09</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -748,10 +749,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>231.86</v>
+        <v>261.29</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -761,10 +762,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>248.01</v>
+        <v>231.86</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -774,10 +775,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>210.68</v>
+        <v>248.01</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -787,10 +788,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>272.16</v>
+        <v>210.68</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -800,10 +801,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>266.28</v>
+        <v>272.16</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -813,10 +814,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>247.31</v>
+        <v>266.28</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -826,10 +827,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>253.17</v>
+        <v>247.31</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -839,10 +840,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>281.06</v>
+        <v>253.17</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -852,10 +853,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>196.33</v>
+        <v>281.06</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -865,10 +866,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>261.26</v>
+        <v>196.33</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -878,10 +879,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>213.4</v>
+        <v>261.26</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -891,10 +892,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>240.77</v>
+        <v>213.4</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -904,22 +905,23 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>209.47</v>
+        <v>44958</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>240.77</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
         <v/>
       </c>
+      <c r="D37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>250.78</v>
+        <v>209.47</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -928,10 +930,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>262.3</v>
+        <v>250.78</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -940,10 +942,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>262.96</v>
+        <v>262.3</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -952,10 +954,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>295.34</v>
+        <v>262.96</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -964,10 +966,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>266.38</v>
+        <v>295.34</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -976,10 +978,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>277.4</v>
+        <v>266.38</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -988,10 +990,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>273.51</v>
+        <v>277.4</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>281.7</v>
+        <v>273.51</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>263.1</v>
+        <v>281.7</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>243.16</v>
+        <v>263.1</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1036,10 +1038,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>244.36</v>
+        <v>243.16</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>229.48</v>
+        <v>244.36</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>247.18</v>
+        <v>229.48</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>306.2</v>
+        <v>247.18</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>236.96</v>
+        <v>306.2</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1096,10 +1098,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>253.65</v>
+        <v>236.96</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1108,10 +1110,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>260.85</v>
+        <v>253.65</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>274.12</v>
+        <v>260.85</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1132,10 +1134,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>281.29</v>
+        <v>274.12</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1144,10 +1146,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>281.3</v>
+        <v>281.29</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1156,10 +1158,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>268.94</v>
+        <v>281.3</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1168,10 +1170,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>321.28</v>
+        <v>268.94</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1180,10 +1182,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>267.98</v>
+        <v>321.28</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1192,10 +1194,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>295.59</v>
+        <v>267.98</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1204,10 +1206,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>240.42</v>
+        <v>295.59</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1216,10 +1218,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>259.93</v>
+        <v>240.42</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1228,10 +1230,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>227.49</v>
+        <v>259.93</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1239,7 +1241,12 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
+      <c r="A65" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>227.49</v>
+      </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
         <v/>
@@ -1329,6 +1336,13 @@
         <v/>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="3" t="n"/>
+      <c r="C78">
+        <f>(B78/B90-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
